--- a/servers.xlsx
+++ b/servers.xlsx
@@ -321,81 +321,85 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>SRV1E8HCO</t>
+          <t>Server ID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Server1C714Z</t>
+          <t>Server Name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Generated server 2</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>192.168.100.2</t>
-        </is>
-      </c>
-      <c r="F1">
-        <v>100</v>
-      </c>
-      <c r="G1">
-        <v>4</v>
+          <t>IPv4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Disk</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>RAM</t>
+        </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Asia-Pacific</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Windows Server 2019</t>
+          <t>OS</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SRVYOV4FG</t>
+          <t>SRVCXG172</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ServerMV9UER</t>
+          <t>ServerK1OCZ8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Generated server 3</t>
+          <t>Generated server 6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>192.168.100.3</t>
+          <t>192.168.100.6</t>
         </is>
       </c>
       <c r="F2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G2">
         <v>32</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>US-West</t>
+          <t>Asia-Pacific</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -407,81 +411,81 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SRVYOTJA2</t>
+          <t>SRVP5UJXY</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ServerPNTGFW</t>
+          <t>Server3MK3CP</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Generated server 4</t>
+          <t>Generated server 3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>192.168.100.4</t>
+          <t>192.168.100.3</t>
         </is>
       </c>
       <c r="F3">
         <v>500</v>
       </c>
       <c r="G3">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>US-East</t>
+          <t>EU-Central</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>CentOS 7</t>
+          <t>Windows Server 2019</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SRVHTT3AX</t>
+          <t>SRV7BL8PB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ServerL5BIKB</t>
+          <t>ServerD2JZMY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Generated server 5</t>
+          <t>Generated server 7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>192.168.100.5</t>
+          <t>192.168.100.7</t>
         </is>
       </c>
       <c r="F4">
         <v>1000</v>
       </c>
       <c r="G4">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>EU-Central</t>
+          <t>US-East</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -493,34 +497,34 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SRV22Q9N1</t>
+          <t>SRVYH22R3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ServerXSX3RS</t>
+          <t>ServerTDNAFA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Generated server 6</t>
+          <t>Generated server 5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>192.168.100.6</t>
+          <t>192.168.100.5</t>
         </is>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -529,45 +533,45 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>CentOS 7</t>
+          <t>Ubuntu 20.04</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SRVG6DSPH</t>
+          <t>SRVUW1U3E</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Server0S1SUX</t>
+          <t>ServerJQ4EUZ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Generated server 7</t>
+          <t>Generated server 2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>192.168.100.7</t>
+          <t>192.168.100.2</t>
         </is>
       </c>
       <c r="F6">
         <v>250</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Asia-Pacific</t>
+          <t>US-West</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -579,27 +583,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SRVUOYYT7</t>
+          <t>SRVS5L7ON</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Server25HXG5</t>
+          <t>ServerYMWAAE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Generated server 8</t>
+          <t>Generated server 10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>192.168.100.8</t>
+          <t>192.168.100.10</t>
         </is>
       </c>
       <c r="F7">
@@ -615,45 +619,45 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Ubuntu 20.04</t>
+          <t>Debian 11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SRVNASAWS</t>
+          <t>SRV1O7EPM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ServerGJ1DNC</t>
+          <t>Server2UR8EL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Generated server 9</t>
+          <t>Generated server 4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>192.168.100.9</t>
+          <t>192.168.100.4</t>
         </is>
       </c>
       <c r="F8">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>US-West</t>
+          <t>US-East</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -665,34 +669,34 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SRVZYIC7K</t>
+          <t>SRVDMMXAE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ServerWLH038</t>
+          <t>Server71ECKN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>OFF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Generated server 10</t>
+          <t>Generated server 9</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>192.168.100.10</t>
+          <t>192.168.100.9</t>
         </is>
       </c>
       <c r="F9">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -701,7 +705,50 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Ubuntu 20.04</t>
+          <t>CentOS 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SRV3SW8TJ</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ServerNDVDWU</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Generated server 8</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>192.168.100.8</t>
+        </is>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>EU-Central</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Windows Server 2019</t>
         </is>
       </c>
     </row>
